--- a/5-FuncoesMercadoTrabalho/21. Trancamento Parcial - Introdução - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/21. Trancamento Parcial - Introdução - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAECBBD-176C-41BB-B8B9-C84A94C7F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C2F21-3995-45C1-8292-0A857B51D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SOMASES" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Contratação</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>Resumo</t>
+  </si>
+  <si>
+    <t>Produto 31</t>
+  </si>
+  <si>
+    <t>Produto 32</t>
+  </si>
+  <si>
+    <t>Produto 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -387,6 +399,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,17 +716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -730,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -747,7 +760,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -764,7 +777,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -781,7 +794,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -798,7 +811,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -815,7 +828,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -832,7 +845,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -849,7 +862,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -866,7 +879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -883,7 +896,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -900,7 +913,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -917,7 +930,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -934,7 +947,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -951,10 +964,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
   </sheetData>
@@ -964,19 +977,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="1" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="14" width="9.77734375" customWidth="1"/>
+    <col min="8" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1039,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1041,7 +1056,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1074,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1092,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1123,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1158,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1191,7 +1206,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1227,7 +1242,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1245,7 +1260,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1276,7 +1291,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1350,14 +1365,36 @@
       <c r="H17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I17" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H17, $D:$D, I$16)</f>
+        <v>7204</v>
+      </c>
+      <c r="J17" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H17, $D:$D, J$16)</f>
+        <v>6052</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" ref="K17:N18" si="0">SUMIFS($E:$E, $B:$B, $H17, $D:$D, K$16)</f>
+        <v>6856</v>
+      </c>
+      <c r="L17" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H17, $D:$D, L$16)</f>
+        <v>2568</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="0"/>
+        <v>949</v>
+      </c>
+      <c r="O17" s="13">
+        <f>SUM(I17:N17)</f>
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1376,14 +1413,36 @@
       <c r="H18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I18" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H18, $D:$D, I$16)</f>
+        <v>2391</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" ref="J18:N18" si="1">SUMIFS($E:$E, $B:$B, $H18, $D:$D, J$16)</f>
+        <v>2423</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
+        <v>1285</v>
+      </c>
+      <c r="L18" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H18, $D:$D, L$16)</f>
+        <v>802</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="O18" s="13">
+        <f>SUM(I18:N18)</f>
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1402,14 +1461,36 @@
       <c r="H19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="10">
+        <f t="shared" ref="I19:N21" si="2">SUMIFS($E:$E, $B:$B, $H19, $D:$D, I$16)</f>
+        <v>1771</v>
+      </c>
+      <c r="J19" s="10">
+        <f>SUMIFS($E:$E, $B:$B, $H19, $D:$D, J$16)</f>
+        <v>1423</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="2"/>
+        <v>1457</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>2528</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="2"/>
+        <v>1454</v>
+      </c>
+      <c r="O19" s="13">
+        <f>SUM(I19:N19)</f>
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1428,14 +1509,36 @@
       <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>1760</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="2"/>
+        <v>1703</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>2266</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>733</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="2"/>
+        <v>2181</v>
+      </c>
+      <c r="O20" s="13">
+        <f>SUM(I20:N20)</f>
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1454,14 +1557,36 @@
       <c r="H21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="2"/>
+        <v>2397</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="2"/>
+        <v>2340</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>865</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="2"/>
+        <v>2811</v>
+      </c>
+      <c r="O21" s="13">
+        <f>SUM(I21:N21)</f>
+        <v>8935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1477,8 +1602,36 @@
       <c r="E22" s="5">
         <v>1703</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="13">
+        <f>SUM(I17:I21)</f>
+        <v>13419</v>
+      </c>
+      <c r="J22" s="13">
+        <f>SUM(J17:J21)</f>
+        <v>12500</v>
+      </c>
+      <c r="K22" s="13">
+        <f>SUM(K17:K21)</f>
+        <v>13641</v>
+      </c>
+      <c r="L22" s="13">
+        <f>SUM(L17:L21)</f>
+        <v>9029</v>
+      </c>
+      <c r="M22" s="13">
+        <f>SUM(M17:M21)</f>
+        <v>3781</v>
+      </c>
+      <c r="N22" s="13">
+        <f>SUM(N17:N21)</f>
+        <v>7607</v>
+      </c>
+      <c r="O22" s="13">
+        <f>SUM(I22:N22)</f>
+        <v>59977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1494,8 +1647,11 @@
       <c r="E23" s="5">
         <v>2266</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1512,7 +1668,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1685,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1702,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1719,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1580,7 +1736,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1753,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1770,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1629,6 +1785,57 @@
       </c>
       <c r="E31" s="5">
         <v>2811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45557</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45557</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45557</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
